--- a/Repository/person/张艺玮/亲逢-用户故事.xlsx
+++ b/Repository/person/张艺玮/亲逢-用户故事.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="19395" windowHeight="7620"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="19395" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
   <si>
     <t>= highest Reference ID number</t>
   </si>
@@ -164,6 +164,36 @@
   </si>
   <si>
     <t>作为一个寻亲者，我希望能够有一个直观的操作教学，以便能够快速进行登记</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别</t>
+  </si>
+  <si>
+    <t>User DESCRIPTION</t>
+  </si>
+  <si>
+    <t>寻亲者</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>志愿者</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>希望帮助寻亲者找到走失者，愿意分享信息到其他平台</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>只在网站浏览相关政策信息，查看走失人信息，不进行其他操作</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>有想要寻找的人，希望在此平台登记信息，并被帮助</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -172,10 +202,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="177" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="183" formatCode="&quot;€&quot;\ #,##0.00;[Red]&quot;€&quot;\ #,##0.00"/>
-    <numFmt numFmtId="184" formatCode="d/mm/yyyy;@"/>
-    <numFmt numFmtId="194" formatCode="0;\-0;;@\ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="&quot;€&quot;\ #,##0.00;[Red]&quot;€&quot;\ #,##0.00"/>
+    <numFmt numFmtId="178" formatCode="d/mm/yyyy;@"/>
+    <numFmt numFmtId="179" formatCode="0;\-0;;@\ "/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -280,7 +310,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -329,8 +359,20 @@
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor theme="5" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -553,6 +595,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -562,21 +630,21 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="5" borderId="9">
+    <xf numFmtId="177" fontId="1" fillId="5" borderId="9">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="9" applyNumberFormat="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="7" fillId="7" borderId="9" applyNumberFormat="0">
+    <xf numFmtId="178" fontId="7" fillId="7" borderId="9" applyNumberFormat="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -633,7 +701,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="194" fontId="9" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="9" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -642,47 +710,65 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -996,7 +1082,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -1010,17 +1096,17 @@
   <sheetData>
     <row r="2" spans="1:12" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
@@ -1042,29 +1128,29 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" s="32" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" s="31" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G5" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="30" t="s">
+      <c r="H5" s="29" t="s">
         <v>7</v>
       </c>
       <c r="I5" s="26" t="s">
@@ -1076,30 +1162,30 @@
       <c r="K5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="31" t="s">
+      <c r="L5" s="30" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="32" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" s="31" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="13">
         <v>1</v>
       </c>
       <c r="B6" s="13">
         <v>1</v>
       </c>
-      <c r="C6" s="33">
-        <v>1</v>
-      </c>
-      <c r="D6" s="33" t="s">
+      <c r="C6" s="32">
+        <v>1</v>
+      </c>
+      <c r="D6" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="32" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="11" t="s">
@@ -1114,16 +1200,16 @@
       <c r="K6" s="12">
         <v>1</v>
       </c>
-      <c r="L6" s="35"/>
-    </row>
-    <row r="7" spans="1:12" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L6" s="34"/>
+    </row>
+    <row r="7" spans="1:12" s="31" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="13">
         <v>2</v>
       </c>
       <c r="B7" s="13">
         <v>1</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="32">
         <v>1</v>
       </c>
       <c r="D7" s="11" t="s">
@@ -1132,7 +1218,7 @@
       <c r="E7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="35" t="s">
         <v>19</v>
       </c>
       <c r="G7" s="11" t="s">
@@ -1150,31 +1236,31 @@
       <c r="K7" s="12">
         <v>1</v>
       </c>
-      <c r="L7" s="35"/>
-    </row>
-    <row r="8" spans="1:12" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L7" s="34"/>
+    </row>
+    <row r="8" spans="1:12" s="31" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="13">
         <v>3</v>
       </c>
       <c r="B8" s="13">
         <v>1</v>
       </c>
-      <c r="C8" s="33">
-        <v>1</v>
-      </c>
-      <c r="D8" s="33" t="s">
+      <c r="C8" s="32">
+        <v>1</v>
+      </c>
+      <c r="D8" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="33" t="s">
+      <c r="H8" s="32" t="s">
         <v>13</v>
       </c>
       <c r="I8" s="24">
@@ -1186,31 +1272,31 @@
       <c r="K8" s="14">
         <v>3</v>
       </c>
-      <c r="L8" s="38"/>
-    </row>
-    <row r="9" spans="1:12" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L8" s="37"/>
+    </row>
+    <row r="9" spans="1:12" s="31" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="13">
         <v>4</v>
       </c>
       <c r="B9" s="13">
         <v>1</v>
       </c>
-      <c r="C9" s="33">
-        <v>1</v>
-      </c>
-      <c r="D9" s="33" t="s">
+      <c r="C9" s="32">
+        <v>1</v>
+      </c>
+      <c r="D9" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="F9" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="G9" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="33" t="s">
+      <c r="H9" s="32" t="s">
         <v>13</v>
       </c>
       <c r="I9" s="24">
@@ -1222,31 +1308,31 @@
       <c r="K9" s="14">
         <v>1</v>
       </c>
-      <c r="L9" s="38"/>
-    </row>
-    <row r="10" spans="1:12" s="32" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+      <c r="L9" s="37"/>
+    </row>
+    <row r="10" spans="1:12" s="31" customFormat="1" ht="36" x14ac:dyDescent="0.15">
       <c r="A10" s="13">
         <v>5</v>
       </c>
       <c r="B10" s="13">
         <v>1</v>
       </c>
-      <c r="C10" s="33">
-        <v>1</v>
-      </c>
-      <c r="D10" s="33" t="s">
+      <c r="C10" s="32">
+        <v>1</v>
+      </c>
+      <c r="D10" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="39" t="s">
+      <c r="F10" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="G10" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="33" t="s">
+      <c r="H10" s="32" t="s">
         <v>13</v>
       </c>
       <c r="I10" s="24">
@@ -1258,31 +1344,31 @@
       <c r="K10" s="14">
         <v>2</v>
       </c>
-      <c r="L10" s="38"/>
-    </row>
-    <row r="11" spans="1:12" s="32" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+      <c r="L10" s="37"/>
+    </row>
+    <row r="11" spans="1:12" s="31" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A11" s="13">
         <v>6</v>
       </c>
       <c r="B11" s="13">
         <v>1</v>
       </c>
-      <c r="C11" s="33">
-        <v>1</v>
-      </c>
-      <c r="D11" s="33" t="s">
+      <c r="C11" s="32">
+        <v>1</v>
+      </c>
+      <c r="D11" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="39" t="s">
+      <c r="F11" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="33" t="s">
+      <c r="G11" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="33" t="s">
+      <c r="H11" s="32" t="s">
         <v>13</v>
       </c>
       <c r="I11" s="24">
@@ -1294,25 +1380,25 @@
       <c r="K11" s="14">
         <v>1</v>
       </c>
-      <c r="L11" s="38"/>
-    </row>
-    <row r="12" spans="1:12" s="32" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L11" s="37"/>
+    </row>
+    <row r="12" spans="1:12" s="31" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="13">
         <v>7</v>
       </c>
       <c r="B12" s="13">
         <v>1</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="32">
         <v>1</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="39" t="s">
+      <c r="F12" s="38" t="s">
         <v>32</v>
       </c>
       <c r="G12" s="11" t="s">
@@ -1330,25 +1416,25 @@
       <c r="K12" s="12">
         <v>2</v>
       </c>
-      <c r="L12" s="35"/>
-    </row>
-    <row r="13" spans="1:12" s="32" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+      <c r="L12" s="34"/>
+    </row>
+    <row r="13" spans="1:12" s="31" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A13" s="13">
         <v>8</v>
       </c>
       <c r="B13" s="13">
         <v>1</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="32">
         <v>1</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="E13" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="39" t="s">
+      <c r="F13" s="38" t="s">
         <v>38</v>
       </c>
       <c r="G13" s="11" t="s">
@@ -1366,25 +1452,25 @@
       <c r="K13" s="12">
         <v>3</v>
       </c>
-      <c r="L13" s="35"/>
-    </row>
-    <row r="14" spans="1:12" s="32" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L13" s="34"/>
+    </row>
+    <row r="14" spans="1:12" s="31" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="13">
         <v>9</v>
       </c>
       <c r="B14" s="13">
         <v>1</v>
       </c>
-      <c r="C14" s="33">
+      <c r="C14" s="32">
         <v>1</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="37" t="s">
+      <c r="E14" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="39" t="s">
+      <c r="F14" s="38" t="s">
         <v>34</v>
       </c>
       <c r="G14" s="11" t="s">
@@ -1402,31 +1488,31 @@
       <c r="K14" s="12">
         <v>1</v>
       </c>
-      <c r="L14" s="35"/>
-    </row>
-    <row r="15" spans="1:12" s="32" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L14" s="34"/>
+    </row>
+    <row r="15" spans="1:12" s="31" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="13">
         <v>10</v>
       </c>
       <c r="B15" s="13">
         <v>1</v>
       </c>
-      <c r="C15" s="33">
-        <v>1</v>
-      </c>
-      <c r="D15" s="33" t="s">
+      <c r="C15" s="32">
+        <v>1</v>
+      </c>
+      <c r="D15" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="37" t="s">
+      <c r="E15" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="39" t="s">
+      <c r="F15" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="33" t="s">
+      <c r="G15" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="33" t="s">
+      <c r="H15" s="32" t="s">
         <v>13</v>
       </c>
       <c r="I15" s="24">
@@ -1438,25 +1524,25 @@
       <c r="K15" s="12">
         <v>2</v>
       </c>
-      <c r="L15" s="35"/>
-    </row>
-    <row r="16" spans="1:12" s="32" customFormat="1" ht="36.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="L15" s="34"/>
+    </row>
+    <row r="16" spans="1:12" s="31" customFormat="1" ht="36.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
         <v>11</v>
       </c>
       <c r="B16" s="13">
         <v>1</v>
       </c>
-      <c r="C16" s="33">
+      <c r="C16" s="32">
         <v>1</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="37" t="s">
+      <c r="E16" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="39" t="s">
+      <c r="F16" s="38" t="s">
         <v>40</v>
       </c>
       <c r="G16" s="11" t="s">
@@ -1474,7 +1560,7 @@
       <c r="K16" s="12">
         <v>1</v>
       </c>
-      <c r="L16" s="35"/>
+      <c r="L16" s="34"/>
     </row>
     <row r="17" spans="1:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A17" s="15" t="s">
@@ -1522,14 +1608,57 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="35.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="36" x14ac:dyDescent="0.15">
+      <c r="A1" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="24" x14ac:dyDescent="0.15">
+      <c r="A2" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="24" x14ac:dyDescent="0.15">
+      <c r="A3" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="24" x14ac:dyDescent="0.15">
+      <c r="A4" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="42"/>
+      <c r="B5" s="41"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
